--- a/knowledge/氨基酸介绍及密码子.xlsx
+++ b/knowledge/氨基酸介绍及密码子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="氨基酸密码子" sheetId="1" r:id="rId1"/>
@@ -103,15 +103,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中文名称</t>
-  </si>
-  <si>
     <t>英文名称</t>
   </si>
   <si>
-    <t> 符号与缩写 </t>
-  </si>
-  <si>
     <t>分子量</t>
   </si>
   <si>
@@ -428,9 +422,6 @@
     <t>H-</t>
   </si>
   <si>
-    <t>组氨酸 </t>
-  </si>
-  <si>
     <t>Histidine</t>
   </si>
   <si>
@@ -512,9 +503,6 @@
   </si>
   <si>
     <t>Leucine</t>
-  </si>
-  <si>
-    <t> L 或 Leu</t>
   </si>
   <si>
     <r>
@@ -1098,6 +1086,22 @@
   </si>
   <si>
     <t>第二个核苷酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号与缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> L 或 Leu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组氨酸 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1496,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1859,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1870,382 +1874,382 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
       <c r="D2">
         <v>89.078999999999994</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3">
         <v>174.18799999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
       </c>
       <c r="D4">
         <v>132.10400000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
       </c>
       <c r="D5">
         <v>133.089</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
       </c>
       <c r="D6">
         <v>121.145</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
       </c>
       <c r="D7">
         <v>146.131</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>147.11600000000001</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
       </c>
       <c r="D9">
         <v>75.052000000000007</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>155.14099999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>131.16</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>131.16</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>146.16999999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>165.17699999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>115.117</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>105.078</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D18">
         <v>119.105</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>204.21299999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2253,39 +2257,39 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>181.17599999999999</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>117.133</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
